--- a/medicine/Psychotrope/Sieur_d'Arques/Sieur_d'Arques.xlsx
+++ b/medicine/Psychotrope/Sieur_d'Arques/Sieur_d'Arques.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sieur_d%27Arques</t>
+          <t>Sieur_d'Arques</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Sieur d’Arques, créée en 1946, est une cave coopérative réunissant 205 viticulteurs. Elle est située à Limoux, au sud de Carcassonne.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sieur_d%27Arques</t>
+          <t>Sieur_d'Arques</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,12 +524,14 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L’histoire du vignoble Languedocien remonte au Ve siècle av. J.-C. lorsque les Grecs y introduisent la vigne et ses pratiques culturales. En 1531, les moines Bénédictins de l’Abbaye de Saint Hilaire, une commune voisine de Limoux, produisent le premier vin effervescent[1]. En 1544, le Sieur d’Arques, seigneur de la région, conquis par ce vin effervescent, a pour coutume de lamper des « flascons » de Blanquette pour fêter dignement ses victoires. Quatre siècles plus tard, forts de cette anecdote historique, les vignerons baptiseront leur cave sous le nom de Sieur d’Arques.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’histoire du vignoble Languedocien remonte au Ve siècle av. J.-C. lorsque les Grecs y introduisent la vigne et ses pratiques culturales. En 1531, les moines Bénédictins de l’Abbaye de Saint Hilaire, une commune voisine de Limoux, produisent le premier vin effervescent. En 1544, le Sieur d’Arques, seigneur de la région, conquis par ce vin effervescent, a pour coutume de lamper des « flascons » de Blanquette pour fêter dignement ses victoires. Quatre siècles plus tard, forts de cette anecdote historique, les vignerons baptiseront leur cave sous le nom de Sieur d’Arques.
 L’AOC Blanquette de Limoux est créée en 1938, il s'agit de la première AOC du Languedoc et l’une des premières appellations de France (décrets du 18 février 1938). Née en 1946 de la volonté d’une poignée de vignerons désireux de prendre leur destin en main, la Société des Producteurs de Blanquette de Limoux ne sera renommée Sieur d’Arques que dans les années 1990.
 En 1990, la cave organise la première édition de Toques et Clochers, une fête populaire et une des plus importantes vente aux enchères de vin en France. Le premier invité d'honneur est le chef cuisinier Pierre Troisgros, suivi de Paul Bocuse et d'Alain Ducasse en 1991 et 1992. 29 ans plus tard, l’événement accueille entre 30 000 et 50 000 personnes annuellement.
-Reconnue comme un acteur majeur en Languedoc[2], la cave est aujourd'hui séparée en deux unités, elle possède son propre laboratoire d'analyse, deux boutiques de vente et son musée du vin.
+Reconnue comme un acteur majeur en Languedoc, la cave est aujourd'hui séparée en deux unités, elle possède son propre laboratoire d'analyse, deux boutiques de vente et son musée du vin.
 </t>
         </is>
       </c>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Sieur_d%27Arques</t>
+          <t>Sieur_d'Arques</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Vignoble</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Son vignoble d'une surface d'environ 1 800 hectares.
 </t>
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Sieur_d%27Arques</t>
+          <t>Sieur_d'Arques</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,7 +593,9 @@
           <t>Vinification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les vins effervescents sont le cœur de métier historique de la cave Sieur d’Arques, qui utilise à la fois la méthode traditionnelle (Blanquette de Limoux et crémant de Limoux) et la méthode ancestrale.
 Les vins tranquilles sont élaborés par la cave, en rouge, blanc et rosé, sous les appellations Limoux, Pays d’Oc et Haute-Vallée de l’Aude.
@@ -593,7 +611,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Sieur_d%27Arques</t>
+          <t>Sieur_d'Arques</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -611,7 +629,9 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">La cave élabore 7 300 000 bouteilles de vins effervescents (en AOC) et 466 000 bouteilles d'appellation Limoux par an, distribuées à 35% à l'export et 65% en France.
 </t>
@@ -624,7 +644,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Sieur_d%27Arques</t>
+          <t>Sieur_d'Arques</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -642,7 +662,9 @@
           <t>Certifications de qualité</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Sieur d'Arques est certifiée :
 pour son management de la qualité, ISO 9000-1 : 2008 ;
@@ -659,7 +681,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Sieur_d%27Arques</t>
+          <t>Sieur_d'Arques</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -677,9 +699,11 @@
           <t>Engagement durable</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Depuis 2007, le groupe Sieur d'Arques est engagé aux côtés de caves viticoles leaders françaises dans une démarche de responsabilité, de l'élaboration du vin au verre de dégustation : Vignerons en développement durable[3].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Depuis 2007, le groupe Sieur d'Arques est engagé aux côtés de caves viticoles leaders françaises dans une démarche de responsabilité, de l'élaboration du vin au verre de dégustation : Vignerons en développement durable.
 </t>
         </is>
       </c>
